--- a/tmp/api_case_tmpl.xlsx
+++ b/tmp/api_case_tmpl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3040" windowWidth="29080" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="3280" yWindow="2920" windowWidth="29080" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>interface_name</t>
   </si>
@@ -435,6 +435,33 @@
   <si>
     <t>{"Content-Type": "{{content-type}}"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>form_post接口</t>
+  </si>
+  <si>
+    <t>/test/form_post</t>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/x-www-form-urlencoded"}</t>
+  </si>
+  <si>
+    <t>{"form_name":"test_form_post_112233"}</t>
+  </si>
+  <si>
+    <t>msg,code</t>
+  </si>
+  <si>
+    <t>请求成功,31200</t>
+  </si>
+  <si>
+    <t>json_post接口</t>
+  </si>
+  <si>
+    <t>/test/json_post</t>
+  </si>
+  <si>
+    <t>{"json_name":"test_json_name_556677"}</t>
   </si>
 </sst>
 </file>
@@ -849,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -860,7 +887,7 @@
     <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.6640625" bestFit="1" customWidth="1"/>
@@ -872,7 +899,7 @@
     <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -913,7 +940,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -954,7 +981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -985,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1016,7 +1043,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1049,7 +1076,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
@@ -1082,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -1113,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -1142,7 +1169,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -1171,7 +1198,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
@@ -1205,13 +1232,8 @@
       <c r="M10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>59</v>
       </c>
@@ -1243,41 +1265,76 @@
       <c r="M11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
     </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
